--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77216.24178440511</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77216.24178440511</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111750135.756814</v>
+        <v>40879197.45863102</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11691.73062114086</v>
+        <v>950015.8648936421</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22605.31802702846</v>
+        <v>1764129.675032864</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33508.43482915014</v>
+        <v>2578243.485172085</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44636.72526870815</v>
+        <v>3391541.32387639</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55765.01570826615</v>
+        <v>4204839.162580696</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66893.30272545556</v>
+        <v>5018137.001285002</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78021.59316501356</v>
+        <v>5831434.839989301</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89149.88018220299</v>
+        <v>6644732.678693602</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100278.170621761</v>
+        <v>7458030.517397901</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111406.4576389505</v>
+        <v>8271328.356102202</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122534.7480785085</v>
+        <v>9084626.194806503</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133663.035095698</v>
+        <v>9897924.03351081</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144791.325535256</v>
+        <v>10711221.87221512</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155919.615974814</v>
+        <v>11524519.71091943</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167047.9064143722</v>
+        <v>12337817.54962374</v>
       </c>
     </row>
   </sheetData>
